--- a/reliability_testing/task_indices_psychometric_results_only_SEM_data.xlsx
+++ b/reliability_testing/task_indices_psychometric_results_only_SEM_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kriszti\GitHub\lendulet_language_SL\reliability_testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balin\Documents\GitHub\lendulet_language_SL\reliability_testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536645A3-463D-48F2-A831-40B272E00955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="indices" sheetId="2" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">indices!$A$1:$K$23</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -183,7 +184,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -271,14 +272,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -286,39 +287,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <b/>
@@ -687,29 +660,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1"/>
-    <col min="6" max="8" width="15.44140625" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="45.6640625" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.7109375" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -744,7 +717,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -778,7 +751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -812,7 +785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -846,7 +819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -880,7 +853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
@@ -914,7 +887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
@@ -933,10 +906,10 @@
       <c r="F7" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
         <v>33</v>
       </c>
       <c r="I7" s="7" t="s">
@@ -946,7 +919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
@@ -965,10 +938,10 @@
       <c r="F8" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="10" t="s">
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
         <v>33</v>
       </c>
       <c r="I8" s="7" t="s">
@@ -978,7 +951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
@@ -1012,7 +985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
@@ -1046,7 +1019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1079,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -1112,7 +1085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1125,7 +1098,9 @@
       <c r="D13" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2">
+        <v>0.36</v>
+      </c>
       <c r="F13" s="9" t="s">
         <v>33</v>
       </c>
@@ -1143,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -1156,7 +1131,9 @@
       <c r="D14" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2">
+        <v>0.64</v>
+      </c>
       <c r="F14" t="s">
         <v>33</v>
       </c>
@@ -1174,7 +1151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
@@ -1187,7 +1164,9 @@
       <c r="D15" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2">
+        <v>0.49</v>
+      </c>
       <c r="F15" t="s">
         <v>33</v>
       </c>
@@ -1205,7 +1184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
@@ -1218,7 +1197,9 @@
       <c r="D16" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="F16" t="s">
         <v>33</v>
       </c>
@@ -1236,7 +1217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -1249,7 +1230,9 @@
       <c r="D17" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2">
+        <v>0.45</v>
+      </c>
       <c r="F17" t="s">
         <v>33</v>
       </c>
@@ -1267,7 +1250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>27</v>
       </c>
@@ -1300,7 +1283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>27</v>
       </c>
@@ -1313,25 +1296,27 @@
       <c r="D19" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" t="str">
+      <c r="E19" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="F19">
         <f>IF(E19="","n.a.",IF(E19&lt;0.7,0,1))</f>
-        <v>n.a.</v>
-      </c>
-      <c r="G19" t="str">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <f>IF(E19="","n.a.",IF(E19&lt;0.6,0,1))</f>
-        <v>n.a.</v>
-      </c>
-      <c r="H19" t="str">
+        <v>1</v>
+      </c>
+      <c r="H19">
         <f>IF(E19="","n.a.",IF(E19&lt;0.5,0,1))</f>
-        <v>n.a.</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7"/>
       <c r="K19" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -1341,25 +1326,27 @@
       <c r="D20" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" t="str">
+      <c r="E20" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="F20">
         <f>IF(E20="","n.a.",IF(E20&lt;0.7,0,1))</f>
-        <v>n.a.</v>
-      </c>
-      <c r="G20" t="str">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <f>IF(E20="","n.a.",IF(E20&lt;0.6,0,1))</f>
-        <v>n.a.</v>
-      </c>
-      <c r="H20" t="str">
+        <v>1</v>
+      </c>
+      <c r="H20">
         <f>IF(E20="","n.a.",IF(E20&lt;0.5,0,1))</f>
-        <v>n.a.</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7"/>
       <c r="K20" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>27</v>
       </c>
@@ -1372,25 +1359,27 @@
       <c r="D21" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" t="str">
+      <c r="E21" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="F21">
         <f>IF(E21="","n.a.",IF(E21&lt;0.7,0,1))</f>
-        <v>n.a.</v>
-      </c>
-      <c r="G21" t="str">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <f>IF(E21="","n.a.",IF(E21&lt;0.6,0,1))</f>
-        <v>n.a.</v>
-      </c>
-      <c r="H21" t="str">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <f>IF(E21="","n.a.",IF(E21&lt;0.5,0,1))</f>
-        <v>n.a.</v>
+        <v>0</v>
       </c>
       <c r="I21" s="7"/>
       <c r="K21" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>27</v>
       </c>
@@ -1403,25 +1392,27 @@
       <c r="D22" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" t="str">
+      <c r="E22" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F22">
         <f>IF(E22="","n.a.",IF(E22&lt;0.7,0,1))</f>
-        <v>n.a.</v>
-      </c>
-      <c r="G22" t="str">
+        <v>0</v>
+      </c>
+      <c r="G22">
         <f>IF(E22="","n.a.",IF(E22&lt;0.6,0,1))</f>
-        <v>n.a.</v>
-      </c>
-      <c r="H22" t="str">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <f>IF(E22="","n.a.",IF(E22&lt;0.5,0,1))</f>
-        <v>n.a.</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7"/>
       <c r="K22" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>27</v>
       </c>
@@ -1440,10 +1431,10 @@
       <c r="F23" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" s="10" t="s">
+      <c r="G23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" t="s">
         <v>33</v>
       </c>
       <c r="I23" s="7" t="s">
@@ -1453,67 +1444,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E31" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:K82">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K82">
     <sortCondition ref="E2:E82"/>
   </sortState>
-  <conditionalFormatting sqref="I24:I1048576 I1:I2">
-    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="~?">
-      <formula>NOT(ISERROR(SEARCH("~?",I1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="20" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",I1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="21" operator="containsText" text="yes">
-      <formula>NOT(ISERROR(SEARCH("yes",I1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1">
-    <cfRule type="containsText" dxfId="8" priority="16" operator="containsText" text="~?">
-      <formula>NOT(ISERROR(SEARCH("~?",K1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="17" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",K1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="18" operator="containsText" text="yes">
-      <formula>NOT(ISERROR(SEARCH("yes",K1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K23">
-    <cfRule type="cellIs" dxfId="5" priority="13" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="14" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="15" operator="containsText" text="~?">
-      <formula>NOT(ISERROR(SEARCH("~?",K2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F23:F31 F2:F16">
     <cfRule type="colorScale" priority="55">
       <colorScale>
@@ -1538,15 +1496,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I23">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="~?">
-      <formula>NOT(ISERROR(SEARCH("~?",I3)))</formula>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="~?">
+      <formula>NOT(ISERROR(SEARCH("~?",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",I3)))</formula>
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="yes">
-      <formula>NOT(ISERROR(SEARCH("yes",I3)))</formula>
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I23">
@@ -1561,28 +1519,50 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K1">
+    <cfRule type="containsText" dxfId="5" priority="16" operator="containsText" text="~?">
+      <formula>NOT(ISERROR(SEARCH("~?",K1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="17" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",K1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="18" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",K1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K23">
+    <cfRule type="cellIs" dxfId="2" priority="13" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="15" operator="containsText" text="~?">
+      <formula>NOT(ISERROR(SEARCH("~?",K2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
